--- a/biology/Botanique/Chloraea_magellanica/Chloraea_magellanica.xlsx
+++ b/biology/Botanique/Chloraea_magellanica/Chloraea_magellanica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chloraea magellanica est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) originaire du sud du continent sud-américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chloraea Magellanica s'élève à environ 35 centimètres de sol, une fois fleurie. Les fleurs sont blanches, des veines vertes , ainsi qu'une langue jaune au centre de la fleur, lui donnent un aspect éclatant. C'est ce qui lui a valu le nom d'Orchidée Porcelaine. Les fleurs d'une taille entre 5 et 8 cm n'ont pas de parfum décelable.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On la rencontre en Patagonie chilienne et argentine, mais aussi dans la région des lacs et des volcans du Chili. C'est dans la steppe que pousse par colonies cette orchidée terrestre. Elle a la particularité de préférer le froid et fuir la chaleur. Très rustique, elle est capable de résister à des températures allant jusqu'à - 15 degrés Celcius. 
 La floraison a lieu au printemps pour s'arrêter au début de l'été.
@@ -574,7 +590,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle n'a pas d'utilisation spécifique.
 Elle n'est pas en voie d'extinction.
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hooker J.D., 1846. Flora Antarctica 2: 350.</t>
         </is>
